--- a/Document/Unit_TestCase.xlsx
+++ b/Document/Unit_TestCase.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ILeaveBase" sheetId="1" r:id="rId1"/>
+    <sheet name="LeaveTotalMonthly" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>RegisterLeave</t>
   </si>
@@ -156,7 +157,19 @@
     <t>GetLeaveRemain_NormalCase_SeniorityLater</t>
   </si>
   <si>
-    <t>GetLeaveRemain_NormalCase_LeaveRegisterStatus</t>
+    <t>GetLeaveRemain_NormalCase_RejectStatus</t>
+  </si>
+  <si>
+    <t>ReCalculateTotalMonthlyAllYear</t>
+  </si>
+  <si>
+    <t>leave Da Duyet</t>
+  </si>
+  <si>
+    <t>Leave ko Duyet</t>
+  </si>
+  <si>
+    <t>Nhan vien Nghi viec</t>
   </si>
 </sst>
 </file>
@@ -476,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,4 +718,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document/Unit_TestCase.xlsx
+++ b/Document/Unit_TestCase.xlsx
@@ -1,144 +1,152 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ILeaveBase" sheetId="1" r:id="rId1"/>
     <sheet name="LeaveTotalMonthly" sheetId="2" r:id="rId2"/>
+    <sheet name="InoutBase" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
   <si>
     <t>RegisterLeave</t>
   </si>
   <si>
+    <t>Normal Case</t>
+  </si>
+  <si>
+    <t>maternityLeave</t>
+  </si>
+  <si>
+    <t>Annual Leave</t>
+  </si>
+  <si>
+    <t>RegisterLeave_NormalCase_AnualLeave_InDay</t>
+  </si>
+  <si>
+    <t>dang ky trong ngay</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>RegisterLeave_NormalCase_AnualLeave_InDay_Normal</t>
+  </si>
+  <si>
+    <t>Đăng ký thứ 7, chủ nhật, ngày off công ty</t>
+  </si>
+  <si>
+    <t>RegisterLeave_NormalCase_AnualLeave_Saturday_SunDay_DayOffCompany</t>
+  </si>
+  <si>
+    <t>Đăng ký giờ nghỉ trưa</t>
+  </si>
+  <si>
+    <t>RegisterLeave_NormalCase_AnualLeave_InBreakTime</t>
+  </si>
+  <si>
+    <t>Đăng ký map đầu giờ nghỉ trưa</t>
+  </si>
+  <si>
+    <t>RegisterLeave_NormalCase_AnualLeave_Map_StartBreakTime</t>
+  </si>
+  <si>
+    <t>đăng ký map cuối giờ nghỉ trưa</t>
+  </si>
+  <si>
+    <t>RegisterLeave_NormalCase_AnualLeave_Map_EndBreakTime</t>
+  </si>
+  <si>
+    <t>đăng ký Over nghỉ trưa</t>
+  </si>
+  <si>
+    <t>RegisterLeave_NormalCase_AnualLeave_OverBreakTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đăng ký nhiều ngày </t>
+  </si>
+  <si>
+    <t>đăng ký nhiều ngày qua tháng</t>
+  </si>
+  <si>
+    <t>RegisterLeave_NormalCase_AnualLeave_MultiDate</t>
+  </si>
+  <si>
+    <t>RegisterLeave_NormalCase_AnualLeave_MultiDate_DifferenceHours</t>
+  </si>
+  <si>
+    <t>RegisterLeave_NormalCase_AnualLeave_MultiDate_Saturday_Sunday</t>
+  </si>
+  <si>
+    <t>RegisterLeave_NormalCase_AnualLeave_MultiDate_DayOff</t>
+  </si>
+  <si>
+    <t>RegisterLeave_NormalCase_AnualLeave_MultiDate_CheckHours</t>
+  </si>
+  <si>
+    <t>AbNormal</t>
+  </si>
+  <si>
+    <t>Duplicate data</t>
+  </si>
+  <si>
+    <t>RegisterLeave_AbNormalCase_AnualLeave_Duplicate</t>
+  </si>
+  <si>
+    <t>Register out 8:00 ~ 17:00</t>
+  </si>
+  <si>
+    <t>RegisterLeave_AbNormalCase_AnualLeave_OutTimeShift</t>
+  </si>
+  <si>
     <t>ApproveLeave</t>
   </si>
   <si>
+    <t>ApproveLeave_NormalCase_OneLeave</t>
+  </si>
+  <si>
+    <t>ApproveLeave_NormalCase_MultiLeave</t>
+  </si>
+  <si>
     <t>RejectLeave</t>
   </si>
   <si>
+    <t>RejectLeave_NormalCase_OneLeave</t>
+  </si>
+  <si>
+    <t>RejectLeave_NormalCase_MultiLeave</t>
+  </si>
+  <si>
     <t>GetLeaveRemain</t>
   </si>
   <si>
+    <t>GetLeaveRemain_NormalCase</t>
+  </si>
+  <si>
+    <t>GetLeaveRemain_NormalCase_AddBonusLater</t>
+  </si>
+  <si>
+    <t>GetLeaveRemain_NormalCase_SeniorityLater</t>
+  </si>
+  <si>
+    <t>GetLeaveRemain_NormalCase_RejectStatus</t>
+  </si>
+  <si>
     <t>GetLeave</t>
   </si>
   <si>
-    <t>Normal Case</t>
-  </si>
-  <si>
-    <t>AbNormal</t>
-  </si>
-  <si>
-    <t>Duplicate data</t>
-  </si>
-  <si>
-    <t>Register out 8:00 ~ 17:00</t>
-  </si>
-  <si>
-    <t>maternityLeave</t>
-  </si>
-  <si>
-    <t>dang ky trong ngay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">đăng ký nhiều ngày </t>
-  </si>
-  <si>
-    <t>đăng ký nhiều ngày qua tháng</t>
-  </si>
-  <si>
-    <t>Đăng ký thứ 7, chủ nhật, ngày off công ty</t>
-  </si>
-  <si>
-    <t>Annual Leave</t>
-  </si>
-  <si>
-    <t>Đăng ký giờ nghỉ trưa</t>
-  </si>
-  <si>
-    <t>Đăng ký map đầu giờ nghỉ trưa</t>
-  </si>
-  <si>
-    <t>đăng ký map cuối giờ nghỉ trưa</t>
-  </si>
-  <si>
-    <t>RegisterLeave_NormalCase_AnualLeave_InDay_Normal</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>RegisterLeave_NormalCase_AnualLeave_Saturday_SunDay_DayOffCompany</t>
-  </si>
-  <si>
-    <t>RegisterLeave_NormalCase_AnualLeave_InBreakTime</t>
-  </si>
-  <si>
-    <t>RegisterLeave_NormalCase_AnualLeave_Map_StartBreakTime</t>
-  </si>
-  <si>
-    <t>RegisterLeave_NormalCase_AnualLeave_Map_EndBreakTime</t>
-  </si>
-  <si>
-    <t>đăng ký Over nghỉ trưa</t>
-  </si>
-  <si>
-    <t>RegisterLeave_NormalCase_AnualLeave_OverBreakTime</t>
-  </si>
-  <si>
-    <t>RegisterLeave_NormalCase_AnualLeave_InDay</t>
-  </si>
-  <si>
-    <t>RegisterLeave_NormalCase_AnualLeave_MultiDate</t>
-  </si>
-  <si>
-    <t>RegisterLeave_NormalCase_AnualLeave_MultiDate_DifferenceHours</t>
-  </si>
-  <si>
-    <t>RegisterLeave_NormalCase_AnualLeave_MultiDate_Saturday_Sunday</t>
-  </si>
-  <si>
-    <t>RegisterLeave_NormalCase_AnualLeave_MultiDate_DayOff</t>
-  </si>
-  <si>
     <t>DeleteLeave</t>
   </si>
   <si>
-    <t>RegisterLeave_AbNormalCase_AnualLeave_Duplicate</t>
-  </si>
-  <si>
-    <t>RegisterLeave_NormalCase_AnualLeave_MultiDate_CheckHours</t>
-  </si>
-  <si>
-    <t>RegisterLeave_AbNormalCase_AnualLeave_OutTimeShift</t>
-  </si>
-  <si>
-    <t>ApproveLeave_NormalCase_OneLeave</t>
-  </si>
-  <si>
-    <t>ApproveLeave_NormalCase_MultiLeave</t>
-  </si>
-  <si>
-    <t>RejectLeave_NormalCase_OneLeave</t>
-  </si>
-  <si>
-    <t>RejectLeave_NormalCase_MultiLeave</t>
-  </si>
-  <si>
     <t>CommonLeaveBase</t>
   </si>
   <si>
@@ -148,18 +156,6 @@
     <t>GetAnnualBonus</t>
   </si>
   <si>
-    <t>GetLeaveRemain_NormalCase</t>
-  </si>
-  <si>
-    <t>GetLeaveRemain_NormalCase_AddBonusLater</t>
-  </si>
-  <si>
-    <t>GetLeaveRemain_NormalCase_SeniorityLater</t>
-  </si>
-  <si>
-    <t>GetLeaveRemain_NormalCase_RejectStatus</t>
-  </si>
-  <si>
     <t>ReCalculateTotalMonthlyAllYear</t>
   </si>
   <si>
@@ -170,30 +166,490 @@
   </si>
   <si>
     <t>Nhan vien Nghi viec</t>
+  </si>
+  <si>
+    <t>MappingInoutLeave</t>
+  </si>
+  <si>
+    <t>NormalCase</t>
+  </si>
+  <si>
+    <t>User already resign</t>
+  </si>
+  <si>
+    <t>MappingInoutLeave_NormalCase_UserResign</t>
+  </si>
+  <si>
+    <t>User already resign Early</t>
+  </si>
+  <si>
+    <t>MappingInoutLeave_NormalCase_UserResignEarly</t>
+  </si>
+  <si>
+    <t>Over date off</t>
+  </si>
+  <si>
+    <t>MappingInoutLeave_NormalCase_OverDayOff</t>
+  </si>
+  <si>
+    <t>Over weekend</t>
+  </si>
+  <si>
+    <t>MappingInoutLeave_NormalCase_OverWeekend</t>
+  </si>
+  <si>
+    <t>Late over minute permit</t>
+  </si>
+  <si>
+    <t>MappingInoutLeave_NormalCase_LateOverPermit</t>
+  </si>
+  <si>
+    <t>early over minute permit</t>
+  </si>
+  <si>
+    <t>MappingInoutLeave_NormalCase_EarlyOverPermit</t>
+  </si>
+  <si>
+    <t>Miss In</t>
+  </si>
+  <si>
+    <t>MappingInoutLeave_NormalCase_MissIn</t>
+  </si>
+  <si>
+    <t>Miss Out</t>
+  </si>
+  <si>
+    <t>MappingInoutLeave_NormalCase_MissOut</t>
+  </si>
+  <si>
+    <t>Miss In-Out</t>
+  </si>
+  <si>
+    <t>MappingInoutLeave_NormalCase_MissInOut</t>
+  </si>
+  <si>
+    <t>Late And have Register Leave</t>
+  </si>
+  <si>
+    <t>MappingInoutLeave_NormalCase_LateWithLeave</t>
+  </si>
+  <si>
+    <t>Late And have register Leave Not Map</t>
+  </si>
+  <si>
+    <t>MappingInoutLeave_NormalCase_LateWithLeaveNonMap</t>
+  </si>
+  <si>
+    <t>Early and have register leave</t>
+  </si>
+  <si>
+    <t>MappingInoutLeave_NormalCase_EalyWithLeave</t>
+  </si>
+  <si>
+    <t>Early and have register leave not Map</t>
+  </si>
+  <si>
+    <t>MappingInoutLeave_NormalCase_EalyWithLeaveNotMap</t>
+  </si>
+  <si>
+    <t>Miss In Out and Register leave not correct</t>
+  </si>
+  <si>
+    <t>MappingInoutLeave_NormalCase_MissInOutWithLeave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miss In and Register leave </t>
+  </si>
+  <si>
+    <t>MappingInoutLeave_NormalCase_MissInWithLeave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miss Out and Register leave </t>
+  </si>
+  <si>
+    <t>MappingInoutLeave_NormalCase_MissOutWithLeave</t>
+  </si>
+  <si>
+    <t>AbnormalCase</t>
+  </si>
+  <si>
+    <t>Search Over 1 month</t>
+  </si>
+  <si>
+    <t>MappingInoutLeave_AbnormalCase_Over1Month</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -201,24 +657,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -267,7 +1010,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -302,7 +1045,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -476,34 +1219,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A4:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="22.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="37.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="70.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="19.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -511,246 +1249,423 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:3">
       <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6">
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    <row r="9" spans="5:6">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6">
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="11" spans="5:6">
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6">
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6">
+      <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6">
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="D24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="F24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
+    <row r="25" spans="4:6">
+      <c r="D25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
+      <c r="F25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F20" t="s">
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F21" t="s">
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="F29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
+    <row r="30" spans="6:6">
+      <c r="F30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F27" t="s">
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="F32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F30" t="s">
+    <row r="33" spans="6:6">
+      <c r="F33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" t="s">
+    <row r="34" spans="6:6">
+      <c r="F34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F33" t="s">
+    <row r="39" spans="6:6">
+      <c r="F39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F34" t="s">
+    <row r="40" spans="7:7">
+      <c r="G40" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
+    <row r="41" spans="7:7">
+      <c r="G41" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G41" t="s">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B3:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="6:6">
       <c r="F4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:6">
       <c r="F5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="6:6">
       <c r="F6" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A2:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="A2:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="19.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="41.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="49.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Document/Unit_TestCase.xlsx
+++ b/Document/Unit_TestCase.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkProject\mtv_management_leave\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ILeaveBase" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>RegisterLeave</t>
   </si>
@@ -228,12 +233,6 @@
     <t>MappingInoutLeave_NormalCase_MissInOut</t>
   </si>
   <si>
-    <t>Late And have Register Leave</t>
-  </si>
-  <si>
-    <t>MappingInoutLeave_NormalCase_LateWithLeave</t>
-  </si>
-  <si>
     <t>Late And have register Leave Not Map</t>
   </si>
   <si>
@@ -243,9 +242,6 @@
     <t>Early and have register leave</t>
   </si>
   <si>
-    <t>MappingInoutLeave_NormalCase_EalyWithLeave</t>
-  </si>
-  <si>
     <t>Early and have register leave not Map</t>
   </si>
   <si>
@@ -277,19 +273,31 @@
   </si>
   <si>
     <t>MappingInoutLeave_AbnormalCase_Over1Month</t>
+  </si>
+  <si>
+    <t>Late And have Register Leave Not Approve</t>
+  </si>
+  <si>
+    <t>Late And have Register Leave  Approve</t>
+  </si>
+  <si>
+    <t>MappingInoutLeave_NormalCase_LateWithLeave_NonApprove</t>
+  </si>
+  <si>
+    <t>MappingInoutLeave_NormalCase_LateWithLeave_Approve</t>
+  </si>
+  <si>
+    <t>MappingInoutLeave_NormalCase_EarlyWithLeave_Approve</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,353 +311,16 @@
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -657,311 +328,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1219,29 +604,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="22.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="37.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="70.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="19.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="6" max="6" width="70.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1249,17 +634,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="1:6">
       <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:4">
+    <row r="6" spans="1:6">
       <c r="D6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="4:6">
+    <row r="7" spans="1:6">
       <c r="D7" t="s">
         <v>3</v>
       </c>
@@ -1267,12 +652,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="4:4">
+    <row r="8" spans="1:6">
       <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:6">
+    <row r="9" spans="1:6">
       <c r="E9" t="s">
         <v>6</v>
       </c>
@@ -1280,7 +665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="5:6">
+    <row r="10" spans="1:6">
       <c r="E10" t="s">
         <v>8</v>
       </c>
@@ -1288,7 +673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="5:6">
+    <row r="11" spans="1:6">
       <c r="E11" t="s">
         <v>10</v>
       </c>
@@ -1296,7 +681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="5:6">
+    <row r="12" spans="1:6">
       <c r="E12" t="s">
         <v>12</v>
       </c>
@@ -1304,7 +689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="5:6">
+    <row r="13" spans="1:6">
       <c r="E13" t="s">
         <v>14</v>
       </c>
@@ -1312,7 +697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="5:6">
+    <row r="14" spans="1:6">
       <c r="E14" t="s">
         <v>16</v>
       </c>
@@ -1320,17 +705,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="4:4">
+    <row r="15" spans="1:6">
       <c r="D15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="4:4">
+    <row r="16" spans="1:6">
       <c r="D16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="5:6">
+    <row r="17" spans="2:6">
       <c r="E17" t="s">
         <v>8</v>
       </c>
@@ -1338,32 +723,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="2:6">
       <c r="F18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="6:6">
+    <row r="19" spans="2:6">
       <c r="F19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="6:6">
+    <row r="20" spans="2:6">
       <c r="F20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="6:6">
+    <row r="21" spans="2:6">
       <c r="F21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="2:6">
       <c r="C23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="4:6">
+    <row r="24" spans="2:6">
       <c r="D24" t="s">
         <v>26</v>
       </c>
@@ -1371,7 +756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="4:6">
+    <row r="25" spans="2:6">
       <c r="D25" t="s">
         <v>28</v>
       </c>
@@ -1387,7 +772,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="6:6">
+    <row r="27" spans="2:6">
       <c r="F27" t="s">
         <v>32</v>
       </c>
@@ -1400,7 +785,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="6:6">
+    <row r="30" spans="2:6">
       <c r="F30" t="s">
         <v>35</v>
       </c>
@@ -1413,117 +798,113 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="6:6">
+    <row r="33" spans="2:7">
       <c r="F33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="6:6">
+    <row r="34" spans="2:7">
       <c r="F34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="6:6">
+    <row r="35" spans="2:7">
       <c r="F35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:7">
       <c r="B36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:7">
       <c r="B38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="6:6">
+    <row r="39" spans="2:7">
       <c r="F39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="7:7">
+    <row r="40" spans="2:7">
       <c r="G40" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="7:7">
+    <row r="41" spans="2:7">
       <c r="G41" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:6">
       <c r="B3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="6:6">
+    <row r="4" spans="2:6">
       <c r="F4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="6:6">
+    <row r="5" spans="2:6">
       <c r="F5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="6:6">
+    <row r="6" spans="2:6">
       <c r="F6" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A2:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="A2:D21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="41.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="49.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="3:4">
+    <row r="4" spans="1:4">
       <c r="C4" t="s">
         <v>52</v>
       </c>
@@ -1531,7 +912,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
+    <row r="5" spans="1:4">
       <c r="C5" t="s">
         <v>54</v>
       </c>
@@ -1539,7 +920,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="3:4">
+    <row r="6" spans="1:4">
       <c r="C6" t="s">
         <v>56</v>
       </c>
@@ -1547,7 +928,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="1:4">
       <c r="C7" t="s">
         <v>58</v>
       </c>
@@ -1555,7 +936,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="3:4">
+    <row r="8" spans="1:4">
       <c r="C8" t="s">
         <v>60</v>
       </c>
@@ -1563,7 +944,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="3:4">
+    <row r="9" spans="1:4">
       <c r="C9" t="s">
         <v>62</v>
       </c>
@@ -1571,7 +952,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="3:4">
+    <row r="10" spans="1:4">
       <c r="C10" t="s">
         <v>64</v>
       </c>
@@ -1579,7 +960,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="3:4">
+    <row r="11" spans="1:4">
       <c r="C11" t="s">
         <v>66</v>
       </c>
@@ -1587,7 +968,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="3:4">
+    <row r="12" spans="1:4">
       <c r="C12" t="s">
         <v>68</v>
       </c>
@@ -1595,77 +976,87 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="3:4">
+    <row r="13" spans="1:4">
       <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" t="s">
         <v>70</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="3:4">
-      <c r="C14" t="s">
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
         <v>72</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="C17" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="3:4">
-      <c r="C15" t="s">
+      <c r="D17" t="s">
         <v>74</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="C18" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="3:4">
-      <c r="C16" t="s">
+      <c r="D18" t="s">
         <v>76</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="19" spans="2:5">
+      <c r="C19" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" t="s">
+      <c r="D19" t="s">
         <v>78</v>
       </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="20" spans="2:5">
+      <c r="C20" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" t="s">
+      <c r="D20" t="s">
         <v>80</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
-      <c r="C19" t="s">
+    <row r="22" spans="2:5">
+      <c r="C22" t="s">
         <v>82</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" t="s">
-        <v>86</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>